--- a/txt_open/flash.xlsx
+++ b/txt_open/flash.xlsx
@@ -329,10 +329,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:M89"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="Q170" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -354,111 +354,148 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>500</v>
-      </c>
-      <c r="B3" t="n">
-        <v>112</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>96476</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(inc.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>data)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>main.o</t>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Debug</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Object</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Name</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="C4" t="n">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>816</v>
+        <v>96476</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>startup_stm32f746xx.o</t>
+          <t>main.o</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="F5" t="n">
-        <v>41819</v>
+        <v>816</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>stm32f7xx_hal.o</t>
+          <t>startup_stm32f746xx.o</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>39811</v>
+        <v>41819</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>stm32f7xx_hal_cortex.o</t>
+          <t>stm32f7xx_hal.o</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -470,20 +507,20 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1199</v>
+        <v>39811</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>stm32f7xx_hal_dma.o</t>
+          <t>stm32f7xx_hal_cortex.o</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>480</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -495,20 +532,20 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1996</v>
+        <v>1199</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>stm32f7xx_hal_gpio.o</t>
+          <t>stm32f7xx_hal_dma.o</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>184</v>
+        <v>480</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -520,20 +557,20 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2682</v>
+        <v>1996</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>stm32f7xx_hal_rcc.o</t>
+          <t>stm32f7xx_hal_gpio.o</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2034</v>
+        <v>184</v>
       </c>
       <c r="B10" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -545,20 +582,20 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12740</v>
+        <v>2682</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>stm32f7xx_hal_uart.o</t>
+          <t>stm32f7xx_hal_rcc.o</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26</v>
+        <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -570,17 +607,17 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5623</v>
+        <v>12740</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>stm32f7xx_it.o</t>
+          <t>stm32f7xx_hal_uart.o</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -595,243 +632,243 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>634592</v>
+        <v>5623</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>stm32f7xx_ll_crc.o</t>
+          <t>stm32f7xx_it.o</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1267</v>
+        <v>634592</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>system_stm32f7xx.o</t>
+          <t>stm32f7xx_ll_crc.o</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>368</v>
+        <v>84</v>
       </c>
       <c r="B14" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5597</v>
+        <v>1267</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>usart.o</t>
+          <t>system_stm32f7xx.o</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4128</v>
+        <v>368</v>
       </c>
       <c r="B15" t="n">
-        <v>418</v>
+        <v>62</v>
       </c>
       <c r="C15" t="n">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>1484</v>
+        <v>456</v>
       </c>
       <c r="F15" t="n">
-        <v>844618</v>
+        <v>5597</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Object</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Totals</t>
+          <t>usart.o</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>4128</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>496</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1484</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>844618</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(incl.</t>
+          <t>Object</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Generated)</t>
+          <t>Totals</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(incl.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Generated)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>4</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>4</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>(incl.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Padding)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>(inc.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>data)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>ZI</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Debug</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Library</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>entry.o</t>
         </is>
       </c>
     </row>
@@ -856,7 +893,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>entry10a.o</t>
+          <t>entry.o</t>
         </is>
       </c>
     </row>
@@ -881,16 +918,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>entry11a.o</t>
+          <t>entry10a.o</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -906,17 +943,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>entry2.o</t>
+          <t>entry11a.o</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
         <v>4</v>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
@@ -931,13 +968,13 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>entry5.o</t>
+          <t>entry2.o</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -956,7 +993,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>entry7b.o</t>
+          <t>entry5.o</t>
         </is>
       </c>
     </row>
@@ -981,16 +1018,16 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>entry8b.o</t>
+          <t>entry7b.o</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1006,16 +1043,16 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>entry9a.o</t>
+          <t>entry8b.o</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1031,16 +1068,16 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>handlers.o</t>
+          <t>entry9a.o</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1052,20 +1089,20 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>init.o</t>
+          <t>handlers.o</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1081,13 +1118,13 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>llshl.o</t>
+          <t>init.o</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -1106,16 +1143,16 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>llushr.o</t>
+          <t>llshl.o</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1127,20 +1164,20 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>printf1.o</t>
+          <t>llushr.o</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1152,17 +1189,17 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>uidiv.o</t>
+          <t>printf1.o</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -1177,20 +1214,20 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>uldiv.o</t>
+          <t>uidiv.o</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>664</v>
+        <v>98</v>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1202,139 +1239,139 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>560</v>
+        <v>92</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Totals</t>
+          <t>uldiv.o</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>664</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>560</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
         <v>2</v>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>(incl.</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Padding)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>(inc.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>data)</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>ZI</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Debug</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Library</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>662</v>
-      </c>
-      <c r="B37" t="n">
-        <v>30</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>560</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>mc_w.l</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B38" t="n">
         <v>30</v>
@@ -1353,94 +1390,89 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
+          <t>mc_w.l</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>664</v>
+      </c>
+      <c r="B39" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>560</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Library</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Totals</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>(inc.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>data)</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>ZI</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Debug</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>4792</v>
-      </c>
-      <c r="B40" t="n">
-        <v>448</v>
-      </c>
-      <c r="C40" t="n">
-        <v>496</v>
-      </c>
-      <c r="D40" t="n">
-        <v>28</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1484</v>
-      </c>
-      <c r="F40" t="n">
-        <v>840474</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Grand</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Totals</t>
         </is>
       </c>
     </row>
@@ -1465,15 +1497,10 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ELF</t>
+          <t>Grand</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
-        <is>
-          <t>Image</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
         <is>
           <t>Totals</t>
         </is>
@@ -1493,69 +1520,54 @@
         <v>28</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1484</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>840474</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>ELF</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4792</v>
+      </c>
+      <c r="B43" t="n">
+        <v>448</v>
+      </c>
+      <c r="C43" t="n">
+        <v>496</v>
+      </c>
+      <c r="D43" t="n">
+        <v>28</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>ROM</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Totals</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>(Code</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Data)</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5288</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>5.16kB)</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1579,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1577,40 +1589,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(RW</t>
+          <t>(Code</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
           <t>Data)</t>
         </is>
       </c>
-      <c r="I44" t="n">
-        <v>1512</v>
+      <c r="H44" t="n">
+        <v>5288</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>1.48kB)</t>
+          <t>5.16kB)</t>
         </is>
       </c>
     </row>
@@ -1622,58 +1629,2911 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>(RW</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Data)</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1512</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1.48kB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>ROM</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>(Code</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Data)</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="K46" t="n">
         <v>5316</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>(</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>5.19kB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(inc.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>data)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Debug</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Object</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>500</v>
+      </c>
+      <c r="B49" t="n">
+        <v>112</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>96476</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>main.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>456</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F50" t="n">
+        <v>816</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>startup_stm32f746xx.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>178</v>
+      </c>
+      <c r="B51" t="n">
+        <v>28</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>41819</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>198</v>
+      </c>
+      <c r="B52" t="n">
+        <v>14</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>39811</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_cortex.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_dma.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>480</v>
+      </c>
+      <c r="B54" t="n">
+        <v>54</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_gpio.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>184</v>
+      </c>
+      <c r="B55" t="n">
+        <v>40</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2682</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_rcc.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B56" t="n">
+        <v>82</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>12740</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_uart.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>26</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5623</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>stm32f7xx_it.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>634592</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>stm32f7xx_ll_crc.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>84</v>
+      </c>
+      <c r="B59" t="n">
+        <v>18</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1267</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>system_stm32f7xx.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>368</v>
+      </c>
+      <c r="B60" t="n">
+        <v>62</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>456</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5597</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>usart.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4128</v>
+      </c>
+      <c r="B61" t="n">
+        <v>418</v>
+      </c>
+      <c r="C61" t="n">
+        <v>496</v>
+      </c>
+      <c r="D61" t="n">
+        <v>28</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F61" t="n">
+        <v>844618</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Object</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>32</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>(incl.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Generated)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>(incl.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Padding)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(inc.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>data)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Debug</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>entry.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>entry10a.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>entry11a.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>8</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>entry2.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>entry5.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>entry7b.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>entry8b.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>8</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>entry9a.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>30</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>handlers.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>68</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>init.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>30</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>68</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>llshl.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>68</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>llushr.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>372</v>
+      </c>
+      <c r="B77" t="n">
+        <v>14</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>184</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>printf1.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>44</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>80</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>uidiv.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>98</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>92</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>uldiv.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>664</v>
+      </c>
+      <c r="B80" t="n">
+        <v>30</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>560</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>(incl.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Padding)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>(inc.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>data)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Debug</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>662</v>
+      </c>
+      <c r="B83" t="n">
+        <v>30</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>560</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>mc_w.l</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>664</v>
+      </c>
+      <c r="B84" t="n">
+        <v>30</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>560</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>(inc.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>data)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Debug</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>4792</v>
+      </c>
+      <c r="B86" t="n">
+        <v>448</v>
+      </c>
+      <c r="C86" t="n">
+        <v>496</v>
+      </c>
+      <c r="D86" t="n">
+        <v>28</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F86" t="n">
+        <v>840474</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Grand</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>4792</v>
+      </c>
+      <c r="B87" t="n">
+        <v>448</v>
+      </c>
+      <c r="C87" t="n">
+        <v>496</v>
+      </c>
+      <c r="D87" t="n">
+        <v>28</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F87" t="n">
+        <v>840474</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ELF</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4792</v>
+      </c>
+      <c r="B88" t="n">
+        <v>448</v>
+      </c>
+      <c r="C88" t="n">
+        <v>496</v>
+      </c>
+      <c r="D88" t="n">
+        <v>28</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>ROM</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>(Code</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Data)</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5288</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>5.16kB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>(RW</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Data)</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1512</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1.48kB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ROM</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>(Code</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Data)</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>5316</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>5.19kB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>(inc.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>data)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Debug</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Object</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>500</v>
+      </c>
+      <c r="B94" t="n">
+        <v>112</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>96476</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>main.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>456</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F95" t="n">
+        <v>816</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>startup_stm32f746xx.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>178</v>
+      </c>
+      <c r="B96" t="n">
+        <v>28</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>12</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>41819</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>198</v>
+      </c>
+      <c r="B97" t="n">
+        <v>14</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>39811</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_cortex.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_dma.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>480</v>
+      </c>
+      <c r="B99" t="n">
+        <v>54</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_gpio.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>184</v>
+      </c>
+      <c r="B100" t="n">
+        <v>40</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2682</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_rcc.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B101" t="n">
+        <v>82</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12740</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>stm32f7xx_hal_uart.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>26</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5623</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>stm32f7xx_it.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>634592</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>stm32f7xx_ll_crc.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>84</v>
+      </c>
+      <c r="B104" t="n">
+        <v>18</v>
+      </c>
+      <c r="C104" t="n">
+        <v>8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1267</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>system_stm32f7xx.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>368</v>
+      </c>
+      <c r="B105" t="n">
+        <v>62</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>456</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5597</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>usart.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4128</v>
+      </c>
+      <c r="B106" t="n">
+        <v>418</v>
+      </c>
+      <c r="C106" t="n">
+        <v>496</v>
+      </c>
+      <c r="D106" t="n">
+        <v>28</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F106" t="n">
+        <v>844618</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Object</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>32</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>(incl.</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Generated)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>(incl.</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Padding)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>(inc.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>data)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Debug</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>entry.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>entry10a.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>entry11a.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>8</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>entry2.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>entry5.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>entry7b.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>entry8b.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>8</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>entry9a.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>30</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>handlers.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>36</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>68</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>init.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>30</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>68</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>llshl.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>32</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>68</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>llushr.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>372</v>
+      </c>
+      <c r="B122" t="n">
+        <v>14</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>184</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>printf1.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>44</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>80</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>uidiv.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>98</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>92</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>uldiv.o</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>664</v>
+      </c>
+      <c r="B125" t="n">
+        <v>30</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>560</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>(incl.</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Padding)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>(inc.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>data)</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Debug</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>662</v>
+      </c>
+      <c r="B128" t="n">
+        <v>30</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>560</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>mc_w.l</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>664</v>
+      </c>
+      <c r="B129" t="n">
+        <v>30</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>560</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>(inc.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>data)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Debug</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4792</v>
+      </c>
+      <c r="B131" t="n">
+        <v>448</v>
+      </c>
+      <c r="C131" t="n">
+        <v>496</v>
+      </c>
+      <c r="D131" t="n">
+        <v>28</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F131" t="n">
+        <v>840474</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Grand</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>4792</v>
+      </c>
+      <c r="B132" t="n">
+        <v>448</v>
+      </c>
+      <c r="C132" t="n">
+        <v>496</v>
+      </c>
+      <c r="D132" t="n">
+        <v>28</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F132" t="n">
+        <v>840474</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>ELF</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>4792</v>
+      </c>
+      <c r="B133" t="n">
+        <v>448</v>
+      </c>
+      <c r="C133" t="n">
+        <v>496</v>
+      </c>
+      <c r="D133" t="n">
+        <v>28</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>ROM</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Totals</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>(Code</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Data)</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5288</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>5.16kB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>(RW</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>ZI</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Data)</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1512</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>1.48kB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ROM</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>(Code</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Data)</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>5316</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>5.19kB)</t>
         </is>

--- a/txt_open/flash.xlsx
+++ b/txt_open/flash.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12570" windowWidth="23250" xWindow="-105" yWindow="-105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -329,13 +329,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="Q170" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O170" sqref="O170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="17"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -356,62 +360,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Code(inc)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(inc.</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>data)</t>
+          <t>RO Data</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RW Data</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>ZI Data</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Debug</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Object</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Name</t>
+          <t>Object Name</t>
         </is>
       </c>
     </row>
@@ -808,67 +787,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Code(inc)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(inc.</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>data)</t>
+          <t>RO Data</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RW Data</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>ZI Data</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Debug</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Name</t>
+          <t>Object Name</t>
         </is>
       </c>
     </row>
@@ -1310,62 +1259,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Code(inc)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(inc.</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>data)</t>
+          <t>RO Data</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RW Data</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>ZI Data</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Debug</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Name</t>
+          <t>Object Name</t>
         </is>
       </c>
     </row>
@@ -1427,52 +1351,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Code(inc)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>(inc.</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>data)</t>
+          <t>RO Data</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RW Data</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>ZI Data</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Debug</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Debug</t>
+          <t>Object Name</t>
         </is>
       </c>
     </row>
@@ -1755,62 +1664,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Code(inc)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(inc.</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>data)</t>
+          <t>RO Data</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RW Data</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>ZI Data</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Debug</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Object</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Name</t>
+          <t>Object Name</t>
         </is>
       </c>
     </row>
@@ -2207,67 +2091,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Code(inc)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>(inc.</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>data)</t>
+          <t>RO Data</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RW Data</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>ZI Data</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Debug</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Name</t>
+          <t>Object Name</t>
         </is>
       </c>
     </row>
@@ -2709,62 +2563,37 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Code(inc)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>(inc.</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>data)</t>
+          <t>RO Data</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RW Data</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>ZI Data</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Debug</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Name</t>
+          <t>Object Name</t>
         </is>
       </c>
     </row>
@@ -2826,52 +2655,37 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Code(inc)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>(inc.</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>data)</t>
+          <t>RO Data</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RW Data</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>ZI Data</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Debug</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Debug</t>
+          <t>Object Name</t>
         </is>
       </c>
     </row>
@@ -2967,1575 +2781,6 @@
       <c r="H88" t="inlineStr">
         <is>
           <t>Totals</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>(Code</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Data)</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>5288</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>5.16kB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>(RW</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Data)</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1512</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>1.48kB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ROM</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>(Code</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Data)</t>
-        </is>
-      </c>
-      <c r="K91" t="n">
-        <v>5316</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>5.19kB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>(inc.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>data)</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Object</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>500</v>
-      </c>
-      <c r="B94" t="n">
-        <v>112</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>4</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>96476</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>main.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>36</v>
-      </c>
-      <c r="B95" t="n">
-        <v>8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>456</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F95" t="n">
-        <v>816</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>startup_stm32f746xx.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>178</v>
-      </c>
-      <c r="B96" t="n">
-        <v>28</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>12</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>41819</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>stm32f7xx_hal.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>198</v>
-      </c>
-      <c r="B97" t="n">
-        <v>14</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>39811</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>stm32f7xx_hal_cortex.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>36</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1199</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>stm32f7xx_hal_dma.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>480</v>
-      </c>
-      <c r="B99" t="n">
-        <v>54</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1996</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>stm32f7xx_hal_gpio.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>184</v>
-      </c>
-      <c r="B100" t="n">
-        <v>40</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2682</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>stm32f7xx_hal_rcc.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>2034</v>
-      </c>
-      <c r="B101" t="n">
-        <v>82</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>12740</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>stm32f7xx_hal_uart.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>26</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5623</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>stm32f7xx_it.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>634592</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>stm32f7xx_ll_crc.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>84</v>
-      </c>
-      <c r="B104" t="n">
-        <v>18</v>
-      </c>
-      <c r="C104" t="n">
-        <v>8</v>
-      </c>
-      <c r="D104" t="n">
-        <v>4</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1267</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>system_stm32f7xx.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>368</v>
-      </c>
-      <c r="B105" t="n">
-        <v>62</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>8</v>
-      </c>
-      <c r="E105" t="n">
-        <v>456</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5597</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>usart.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>4128</v>
-      </c>
-      <c r="B106" t="n">
-        <v>418</v>
-      </c>
-      <c r="C106" t="n">
-        <v>496</v>
-      </c>
-      <c r="D106" t="n">
-        <v>28</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1484</v>
-      </c>
-      <c r="F106" t="n">
-        <v>844618</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Object</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Totals</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>32</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>(incl.</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Generated)</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>4</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>(incl.</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Padding)</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>(inc.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>data)</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>entry.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>entry10a.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>entry11a.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>8</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>entry2.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>4</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>entry5.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>0</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>entry7b.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>entry8b.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>8</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>entry9a.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>30</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>handlers.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>36</v>
-      </c>
-      <c r="B119" t="n">
-        <v>8</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>68</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>init.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>30</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>68</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>llshl.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>32</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>68</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>llushr.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>372</v>
-      </c>
-      <c r="B122" t="n">
-        <v>14</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>184</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>printf1.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>44</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>80</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>uidiv.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>98</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>92</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>uldiv.o</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>664</v>
-      </c>
-      <c r="B125" t="n">
-        <v>30</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>560</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Totals</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>2</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>(incl.</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Padding)</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>(inc.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>data)</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>662</v>
-      </c>
-      <c r="B128" t="n">
-        <v>30</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>560</v>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>mc_w.l</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>664</v>
-      </c>
-      <c r="B129" t="n">
-        <v>30</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>560</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Totals</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>(inc.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>data)</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Debug</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>4792</v>
-      </c>
-      <c r="B131" t="n">
-        <v>448</v>
-      </c>
-      <c r="C131" t="n">
-        <v>496</v>
-      </c>
-      <c r="D131" t="n">
-        <v>28</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1484</v>
-      </c>
-      <c r="F131" t="n">
-        <v>840474</v>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Grand</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Totals</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>4792</v>
-      </c>
-      <c r="B132" t="n">
-        <v>448</v>
-      </c>
-      <c r="C132" t="n">
-        <v>496</v>
-      </c>
-      <c r="D132" t="n">
-        <v>28</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1484</v>
-      </c>
-      <c r="F132" t="n">
-        <v>840474</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>ELF</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Image</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Totals</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>4792</v>
-      </c>
-      <c r="B133" t="n">
-        <v>448</v>
-      </c>
-      <c r="C133" t="n">
-        <v>496</v>
-      </c>
-      <c r="D133" t="n">
-        <v>28</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>ROM</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Totals</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>(Code</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Data)</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>5288</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>5.16kB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>(RW</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>ZI</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Data)</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>1512</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>1.48kB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ROM</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>(Code</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Data)</t>
-        </is>
-      </c>
-      <c r="K136" t="n">
-        <v>5316</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>5.19kB)</t>
         </is>
       </c>
     </row>
